--- a/Data/List of Countries .xlsx
+++ b/Data/List of Countries .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpmvbastos/Documents/GitHub/ColonialLegacy/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2B92028-277D-1845-A9A0-C7B5D7F1E7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A68B9D-2705-F540-B064-293B4765C8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="2020" windowWidth="28040" windowHeight="17440" xr2:uid="{5AF70BF7-1A31-5945-BDDB-2BDB763B37DB}"/>
+    <workbookView xWindow="60" yWindow="1800" windowWidth="13220" windowHeight="17440" xr2:uid="{5AF70BF7-1A31-5945-BDDB-2BDB763B37DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,44 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="117">
-  <si>
-    <t xml:space="preserve">Belgium </t>
-  </si>
-  <si>
-    <t>Britain</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="119">
   <si>
     <t>France</t>
   </si>
   <si>
-    <t xml:space="preserve">Germany </t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         Burundi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratic Republic of the Congo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          Rwanda </t>
-  </si>
-  <si>
     <t xml:space="preserve">Australia </t>
   </si>
   <si>
@@ -98,12 +65,6 @@
     <t xml:space="preserve">               Brunei Darussalam </t>
   </si>
   <si>
-    <t xml:space="preserve">                        Cameroon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                          Canada </t>
-  </si>
-  <si>
     <t xml:space="preserve">                          Cyprus </t>
   </si>
   <si>
@@ -125,9 +86,6 @@
     <t xml:space="preserve">                          Israel </t>
   </si>
   <si>
-    <t xml:space="preserve">                         Jamaica </t>
-  </si>
-  <si>
     <t xml:space="preserve">                          Jordan </t>
   </si>
   <si>
@@ -143,9 +101,6 @@
     <t xml:space="preserve">                          Malawi </t>
   </si>
   <si>
-    <t xml:space="preserve">                       Mauritius </t>
-  </si>
-  <si>
     <t xml:space="preserve">                 Myanmar (Burma) </t>
   </si>
   <si>
@@ -164,18 +119,12 @@
     <t xml:space="preserve">                           Qatar </t>
   </si>
   <si>
-    <t xml:space="preserve">                      Seychelles </t>
-  </si>
-  <si>
     <t xml:space="preserve">                    Sierra Leone </t>
   </si>
   <si>
     <t xml:space="preserve">                       Singapore </t>
   </si>
   <si>
-    <t xml:space="preserve">                         Somalia </t>
-  </si>
-  <si>
     <t xml:space="preserve">                       Sri Lanka </t>
   </si>
   <si>
@@ -230,9 +179,6 @@
     <t xml:space="preserve">                           Congo </t>
   </si>
   <si>
-    <t xml:space="preserve">                   C�te d�Ivoire </t>
-  </si>
-  <si>
     <t xml:space="preserve">                        Djibouti </t>
   </si>
   <si>
@@ -260,36 +206,21 @@
     <t xml:space="preserve">                           Niger </t>
   </si>
   <si>
-    <t xml:space="preserve">                         Senegal </t>
-  </si>
-  <si>
     <t xml:space="preserve">                           Syria </t>
   </si>
   <si>
     <t xml:space="preserve">                        Thailand </t>
   </si>
   <si>
-    <t xml:space="preserve">                            Togo </t>
-  </si>
-  <si>
     <t xml:space="preserve">                         Tunisia </t>
   </si>
   <si>
-    <t xml:space="preserve">                           Vietm </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Namibia </t>
-  </si>
-  <si>
     <t xml:space="preserve">  Guyana </t>
   </si>
   <si>
     <t xml:space="preserve">                       Indonesia </t>
   </si>
   <si>
-    <t xml:space="preserve">                    South Africa </t>
-  </si>
-  <si>
     <t xml:space="preserve">                        Suriname </t>
   </si>
   <si>
@@ -302,15 +233,9 @@
     <t xml:space="preserve">                      Cabo Verde </t>
   </si>
   <si>
-    <t xml:space="preserve">                           Ghana </t>
-  </si>
-  <si>
     <t xml:space="preserve">                   Guinea-Bissau </t>
   </si>
   <si>
-    <t xml:space="preserve">                        Malaysia </t>
-  </si>
-  <si>
     <t xml:space="preserve">                      Mozambique </t>
   </si>
   <si>
@@ -350,15 +275,9 @@
     <t xml:space="preserve">                        Honduras </t>
   </si>
   <si>
-    <t xml:space="preserve">                      Mauritania </t>
-  </si>
-  <si>
     <t xml:space="preserve">                          Mexico </t>
   </si>
   <si>
-    <t xml:space="preserve">                         Morocco </t>
-  </si>
-  <si>
     <t xml:space="preserve">                       Nicaragua </t>
   </si>
   <si>
@@ -374,12 +293,6 @@
     <t xml:space="preserve">                     Philippines </t>
   </si>
   <si>
-    <t xml:space="preserve">               Trinidad &amp; Tobago </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         Uruguay </t>
-  </si>
-  <si>
     <t xml:space="preserve">                       Venezuela </t>
   </si>
   <si>
@@ -387,13 +300,106 @@
   </si>
   <si>
     <t>\\</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>\textbf{Belgium: 3}</t>
+  </si>
+  <si>
+    <t>\textbf{Britain: 45}</t>
+  </si>
+  <si>
+    <t>C\^ote d'Ivoire</t>
+  </si>
+  <si>
+    <t>\textbf{Britain (cont.):}</t>
+  </si>
+  <si>
+    <t>\textbf{Italy: 1}</t>
+  </si>
+  <si>
+    <t>\textbf{Netherlands: 3}</t>
+  </si>
+  <si>
+    <t>$N$ = 107</t>
+  </si>
+  <si>
+    <t>\textbf{Portugal: 8}</t>
+  </si>
+  <si>
+    <t>\textbf{Spain: 22}</t>
+  </si>
+  <si>
+    <t>\textbf{Germany: 1}</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         Burundi*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Rwanda*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Cameroon* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Canada* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         Senegal* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            Togo* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       Mauritius* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         Jamaica*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         Somalia* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Seychelles* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Mauritania* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         Morocco* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Trinidad \&amp; Tobago* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         Uruguay* </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Namibia* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libia* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           Ghana* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Malaysia* </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -413,6 +419,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -439,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -448,6 +462,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -765,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB81D63-6693-C043-B55B-EE00EB4B3297}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,782 +793,785 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>86</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>86</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>86</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>86</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>86</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>116</v>
+        <v>86</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F1" r:id="rId1" xr:uid="{41507F7A-D389-3448-B5E0-D3BD612FDBF5}"/>
-    <hyperlink ref="F2:F39" r:id="rId2" display="\\" xr:uid="{45F5A710-9DCA-4640-BE34-1C392A9B0A72}"/>
+    <hyperlink ref="F1" r:id="rId1" xr:uid="{9F3F62AE-6C20-C547-BEF8-11923F652698}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{FA1A0AD1-A034-9E45-8915-B4AC2BE5B319}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
